--- a/unit test results.xlsx
+++ b/unit test results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Output</t>
   </si>
@@ -65,7 +65,13 @@
     <t>Start Date : 2019-01-29T13:28:00.000Z ,  End Date : 2019-01-31T23:59:59.999Z</t>
   </si>
   <si>
-    <t>x</t>
+    <t>2018-01-02 22:08:12.41Z</t>
+  </si>
+  <si>
+    <t>input date is not in correct format</t>
+  </si>
+  <si>
+    <t>2018-01-0</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,9 +463,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -489,7 +506,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6A6857-C84C-42C6-BDCB-AB3B971B18B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{281C4010-41C0-4522-8174-5E6F064B1E0E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
